--- a/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,67%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>56,9; 65,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>55,98; 65,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>74,0; 81,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>40,17; 56,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>58,54; 67,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>60,65; 69,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>75,68; 83,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>43,03; 58,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>59,11; 65,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>60,16; 66,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>75,59; 81,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>43,57; 55,16</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,88%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>64,21; 71,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>61,07; 68,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>78,07; 84,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>57,53; 69,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>65,38; 73,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>68,98; 76,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>77,24; 83,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>48,23; 59,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>65,87; 71,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>66,24; 71,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>78,95; 83,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>54,23; 62,77</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>66,16; 73,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>67,84; 75,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>79,13; 85,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>59,63; 68,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>67,57; 74,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>72,07; 78,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>79,29; 85,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>57,82; 64,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>68,22; 73,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>71,09; 76,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>80,32; 84,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>59,77; 65,38</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,32%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>68,76; 76,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>66,52; 74,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>79,13; 85,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>45,95; 65,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>67,28; 75,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>76,6; 83,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>82,59; 87,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>61,54; 68,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>69,22; 75,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>72,71; 77,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>81,7; 86,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>53,43; 65,48</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,29%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,18%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>67,64; 76,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>62,24; 71,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>79,88; 87,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>65,58; 72,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>72,84; 81,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>70,55; 79,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>83,03; 89,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>70,0; 76,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>71,8; 78,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>67,72; 74,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>82,6; 87,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>69,02; 73,72</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,81%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,31%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,89%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,29%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>75,58; 82,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>72,02; 79,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>79,45; 85,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>67,38; 72,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>77,14; 83,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>74,83; 81,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>87,61; 92,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>69,97; 74,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>77,48; 81,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>74,42; 79,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>84,83; 88,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>69,63; 73,09</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,05%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,69; 71,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>67,23; 70,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,47; 83,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>60,32; 65,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>70,83; 73,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>73,9; 76,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,39; 85,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,12; 66,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>70,27; 72,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>71,04; 73,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>82,36; 84,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>62,1; 65,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>47,26%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,17; 56,67</t>
+          <t>37,37; 54,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,03; 58,65</t>
+          <t>41,14; 56,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,57; 55,16</t>
+          <t>41,19; 53,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>54,37%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,53; 69,27</t>
+          <t>56,09; 68,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,23; 59,66</t>
+          <t>30,82; 57,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,23; 62,77</t>
+          <t>41,13; 60,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63,87%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,37%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>61,92%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>59,63; 68,6</t>
+          <t>58,81; 67,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,82; 64,99</t>
+          <t>57,37; 64,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,77; 65,38</t>
+          <t>59,01; 64,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>45,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>53,06%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,95; 65,13</t>
+          <t>21,06; 64,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,54; 68,48</t>
+          <t>51,94; 66,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,43; 65,48</t>
+          <t>31,31; 63,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>68,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>71,18%</t>
+          <t>70,5%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,58; 72,91</t>
+          <t>64,8; 72,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,0; 76,29</t>
+          <t>69,5; 75,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,02; 73,72</t>
+          <t>68,27; 73,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>79,3%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>78,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>78,4%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>67,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>79,81%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>77,31%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>67,28%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,58; 82,65</t>
+          <t>72,74; 82,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,02; 79,43</t>
+          <t>69,32; 79,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,45; 85,59</t>
+          <t>75,77; 84,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,38; 72,91</t>
+          <t>63,4; 71,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>77,14; 83,06</t>
+          <t>74,07; 82,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>74,83; 81,04</t>
+          <t>73,36; 82,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,61; 92,36</t>
+          <t>86,54; 93,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,97; 74,25</t>
+          <t>63,96; 70,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,48; 81,97</t>
+          <t>74,88; 81,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,42; 79,64</t>
+          <t>72,68; 79,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>84,83; 88,64</t>
+          <t>82,84; 88,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>69,63; 73,09</t>
+          <t>64,76; 69,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>81,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>68,87%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>72,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>79,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,76%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>78,52%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>74,23%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>75,4; 85,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71,96; 82,77</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>81,52; 89,12</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>67,49; 76,31</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77,64; 86,22</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>74,73; 83,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>86,22; 93,14</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>72,53; 78,54</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>78,56; 84,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>74,82; 81,86</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>85,14; 90,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71,78; 76,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>70,43%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>68,87%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>81,91%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>58,53%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72,29%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>75,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>84,79%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>62,54%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>71,38%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>72,14%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>83,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>60,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>68,69; 71,99</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>67,23; 70,51</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>80,47; 83,26</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>60,32; 65,5</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>45,06; 63,82</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>70,83; 73,86</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>73,9; 76,69</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>83,39; 85,92</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>63,12; 66,31</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57,8; 64,61</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>70,27; 72,46</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>71,04; 73,28</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>82,36; 84,23</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>62,1; 65,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51,87; 63,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,9; 65,77</t>
+          <t>56,34; 65,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,98; 65,67</t>
+          <t>55,68; 65,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,0; 81,96</t>
+          <t>73,64; 81,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,37; 54,9</t>
+          <t>37,48; 54,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,54; 67,31</t>
+          <t>58,65; 67,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,65; 69,78</t>
+          <t>61,51; 70,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,68; 83,31</t>
+          <t>75,41; 83,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,14; 56,52</t>
+          <t>41,63; 56,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,11; 65,31</t>
+          <t>58,82; 65,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60,16; 66,74</t>
+          <t>59,99; 66,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,59; 81,28</t>
+          <t>75,36; 81,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,19; 53,22</t>
+          <t>41,01; 53,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,21; 71,34</t>
+          <t>64,22; 71,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,07; 68,66</t>
+          <t>61,55; 68,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,07; 84,44</t>
+          <t>77,95; 84,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,09; 68,39</t>
+          <t>55,73; 68,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,38; 73,02</t>
+          <t>65,73; 72,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,98; 76,24</t>
+          <t>68,85; 76,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,24; 83,84</t>
+          <t>77,87; 84,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,82; 57,05</t>
+          <t>31,55; 56,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,87; 71,14</t>
+          <t>66,19; 71,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,24; 71,44</t>
+          <t>66,26; 71,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,95; 83,53</t>
+          <t>79,01; 83,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>41,13; 60,28</t>
+          <t>40,53; 60,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,16; 73,7</t>
+          <t>66,74; 73,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,84; 75,22</t>
+          <t>67,82; 75,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,13; 85,21</t>
+          <t>79,04; 84,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58,81; 67,84</t>
+          <t>58,88; 67,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,57; 74,59</t>
+          <t>67,44; 74,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,07; 78,86</t>
+          <t>72,35; 79,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,29; 85,14</t>
+          <t>79,55; 85,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,37; 64,43</t>
+          <t>57,03; 64,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,22; 73,27</t>
+          <t>68,26; 73,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,09; 76,0</t>
+          <t>71,36; 76,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80,32; 84,44</t>
+          <t>80,16; 84,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,01; 64,69</t>
+          <t>59,38; 64,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,76; 76,83</t>
+          <t>68,62; 76,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,52; 74,48</t>
+          <t>66,58; 74,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,13; 85,38</t>
+          <t>78,73; 85,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,06; 64,14</t>
+          <t>20,59; 64,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,28; 75,53</t>
+          <t>67,05; 75,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,6; 83,38</t>
+          <t>76,87; 83,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,59; 87,84</t>
+          <t>82,5; 88,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,94; 66,94</t>
+          <t>53,78; 66,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,22; 75,14</t>
+          <t>69,28; 74,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>72,71; 77,84</t>
+          <t>72,6; 78,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81,7; 86,07</t>
+          <t>81,66; 85,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 63,74</t>
+          <t>32,02; 64,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,64; 76,86</t>
+          <t>67,94; 76,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,24; 71,75</t>
+          <t>62,26; 71,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,88; 87,09</t>
+          <t>79,85; 86,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,8; 72,12</t>
+          <t>64,57; 72,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,84; 81,26</t>
+          <t>73,17; 81,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,55; 79,19</t>
+          <t>70,17; 78,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,03; 89,59</t>
+          <t>83,17; 89,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,5; 75,76</t>
+          <t>69,9; 75,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,8; 78,01</t>
+          <t>71,91; 77,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,72; 74,26</t>
+          <t>68,22; 74,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,6; 87,55</t>
+          <t>82,67; 87,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>68,27; 73,04</t>
+          <t>68,14; 72,81</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,74; 82,28</t>
+          <t>73,05; 82,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,32; 79,5</t>
+          <t>69,2; 79,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,77; 84,83</t>
+          <t>75,96; 84,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,4; 71,03</t>
+          <t>62,52; 71,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,07; 82,58</t>
+          <t>74,53; 82,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,36; 82,0</t>
+          <t>72,62; 81,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>86,54; 93,0</t>
+          <t>86,9; 93,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,96; 70,24</t>
+          <t>63,93; 70,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>74,88; 81,19</t>
+          <t>74,94; 81,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>72,68; 79,45</t>
+          <t>72,47; 79,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82,84; 88,12</t>
+          <t>82,61; 88,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>64,76; 69,95</t>
+          <t>64,45; 69,68</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,4; 85,83</t>
+          <t>75,46; 85,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71,96; 82,77</t>
+          <t>71,68; 82,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,52; 89,12</t>
+          <t>81,37; 89,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,49; 76,31</t>
+          <t>67,64; 76,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>77,64; 86,22</t>
+          <t>77,03; 85,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>74,73; 83,14</t>
+          <t>75,02; 83,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,22; 93,14</t>
+          <t>86,48; 93,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>72,53; 78,54</t>
+          <t>72,54; 78,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>78,56; 84,95</t>
+          <t>78,0; 85,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,82; 81,86</t>
+          <t>74,82; 81,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,6</t>
+          <t>85,46; 90,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,78; 76,73</t>
+          <t>71,79; 76,71</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>68,69; 71,99</t>
+          <t>68,81; 71,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>67,23; 70,51</t>
+          <t>67,33; 70,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>80,47; 83,26</t>
+          <t>80,69; 83,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,06; 63,82</t>
+          <t>44,53; 63,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>70,83; 73,86</t>
+          <t>70,65; 73,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>73,9; 76,69</t>
+          <t>73,71; 76,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>83,39; 85,92</t>
+          <t>83,36; 85,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>57,8; 64,61</t>
+          <t>58,44; 64,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,27; 72,46</t>
+          <t>70,14; 72,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>71,04; 73,28</t>
+          <t>70,94; 73,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>82,36; 84,23</t>
+          <t>82,45; 84,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>51,87; 63,45</t>
+          <t>51,76; 63,52</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo social funcional bajo, por encima del percentil 15</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>301952</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>272265</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>326392</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>181907</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>295334</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>281338</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>314190</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>149340</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>597286</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>553603</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>640582</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>331246</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>277873; 321885</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>249567; 291870</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>308884; 342324</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>148318; 217263</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>274172; 314419</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>262831; 300424</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>297712; 328593</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>127012; 173903</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>565063; 625030</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>525206; 583404</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>613584; 664266</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>287406; 372348</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>498976</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>444110</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>473395</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>263560</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>432124</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>443094</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>453399</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>241730</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>931100</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>887204</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>926793</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>505290</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>472355; 525543</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>418444; 467667</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>452441; 490780</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>234501; 288538</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>409696; 454622</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>418689; 464535</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>435498; 470589</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>160442; 289519</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>899465; 967031</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>853390; 922239</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>900456; 952478</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>376657; 558254</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>448380</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>484883</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>550363</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>333319</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>490264</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>533313</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>537258</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>328152</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>938644</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1018195</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1087621</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>661471</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>425541; 470287</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>459054; 508604</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>528161; 567841</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>311335; 358278</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>464503; 511466</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>508991; 555731</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>517237; 556137</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>307654; 347534</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>905313; 971707</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>984979; 1050166</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1056803; 1112965</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>634319; 692487</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>377779</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>429934</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>526385</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>398969</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>367518</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>489792</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>549847</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>437911</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>745297</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>919726</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1076232</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>836880</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>355174; 397220</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>405149; 452327</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>503007; 544768</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>180597; 563607</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>345761; 388251</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>469171; 509861</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>530700; 567458</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>376400; 468604</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>715805; 772290</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>884869; 953039</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1047111; 1101911</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>504994; 1012307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>279231</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>284667</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>395098</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>378909</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>312655</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>333330</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>425874</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>388673</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>591885</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>617998</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>820970</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>767581</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>262167; 295773</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>264091; 305301</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>377294; 411032</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>357896; 400027</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>295589; 328078</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>312051; 350526</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>407535; 440256</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>373583; 404424</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>567990; 615941</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>592802; 647514</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>795763; 842254</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>741866; 792641</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>226699</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>225898</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>267629</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>244351</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>268906</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>269499</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>336677</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>262731</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>495605</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>495397</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>604306</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>507082</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>212445; 239303</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>209732; 240556</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>252428; 281905</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>227221; 258188</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>255587; 283251</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>252369; 282777</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>324732; 347643</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>249482; 276259</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>474943; 515070</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>471507; 516249</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>583259; 622391</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>485761; 525130</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>170346</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>190372</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>219337</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>195457</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>273865</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>302022</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>357757</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>311528</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>444211</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>492394</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>577094</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>506985</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>158372; 180205</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>176051; 203304</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>208404; 228721</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>183144; 207003</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>257219; 286488</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>286144; 318417</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>343775; 370197</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>299079; 323557</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>424163; 462680</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>469137; 513831</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>558629; 593236</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>490324; 523944</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2266</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2626</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>5414</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2303361</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2332130</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2758599</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1996471</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2440666</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2652387</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2975000</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2120065</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4744028</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4984518</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>5733599</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4116536</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2250542; 2354164</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2280017; 2384626</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2717762; 2808146</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1518941; 2174881</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2385333; 2485211</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2596683; 2703225</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2924839; 3015188</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1980925; 2201273</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4661791; 4811229</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4901721; 5060829</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>5669921; 5799050</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3520377; 4320061</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>